--- a/biology/Zoologie/Eleutherodactylus_thomasi/Eleutherodactylus_thomasi.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_thomasi/Eleutherodactylus_thomasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus thomasi est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus thomasi est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1]. Elle se rencontre dans les provinces de Matanzas, de Sancti Spíritus, Cienfuegos, Ciego de Avila et Camagüey du niveau de la mer jusqu'à 390 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans les provinces de Matanzas, de Sancti Spíritus, Cienfuegos, Ciego de Avila et Camagüey du niveau de la mer jusqu'à 390 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 43,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 43,4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eleutherodactylus thomasi thomasi Schwartz, 1959
 Eleutherodactylus thomasi trinidadensis Schwartz, 1959
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Thomas[2] et le nom de la sous-espèce lui a été donné en référence au lieu de sa découverte, la Sierra de Trinidad.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Thomas et le nom de la sous-espèce lui a été donné en référence au lieu de sa découverte, la Sierra de Trinidad.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Schwartz, 1959 : A new species of frog of the Eleutherodactylus ricordi group from central Cuba. American Museum novitates, no 1926, p. 1-16 (texte intégral).
 Schwartz, 1960 : Nine new Cuban frogs of the genus Eleutherodactylus. Scientific Publications. Reading Public Museum and Art Gallery, vol. 11, p. 3–50.</t>
